--- a/templates/certificate_template.xlsx
+++ b/templates/certificate_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solstxce\scoop\persist\xampp\htdocs\eyebook_update\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AE0212-8429-488C-83E5-8DCB8FC4A646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2A4E6B-C460-43CB-83F0-A70A5F52DF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{6BD175DF-B414-46B8-9D88-38CB451DF34E}"/>
   </bookViews>
@@ -36,18 +36,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Grade in %</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Registration Number</t>
-  </si>
-  <si>
-    <t>Abcd ABCD</t>
+    <t>SME</t>
+  </si>
+  <si>
+    <t>Project Title</t>
+  </si>
+  <si>
+    <t>Ranganathan</t>
+  </si>
+  <si>
+    <t>Explainable AI</t>
+  </si>
+  <si>
+    <t>R Raja</t>
   </si>
 </sst>
 </file>
@@ -422,7 +428,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -432,24 +438,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>9921000000</v>
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>90</v>
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
